--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14850"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -63,16 +63,19 @@
     <t>骷髅模型1</t>
   </si>
   <si>
+    <t>modelprefabs/Role_Mimi</t>
+  </si>
+  <si>
+    <t>骷髅模型2</t>
+  </si>
+  <si>
+    <t>modelprefabs/Player_002</t>
+  </si>
+  <si>
+    <t>骷髅模型3</t>
+  </si>
+  <si>
     <t>modelprefabs/Player_001</t>
-  </si>
-  <si>
-    <t>骷髅模型2</t>
-  </si>
-  <si>
-    <t>modelprefabs/Player_002</t>
-  </si>
-  <si>
-    <t>骷髅模型3</t>
   </si>
   <si>
     <t>骷髅模型4</t>
@@ -101,9 +104,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -116,6 +119,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,9 +180,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,29 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,85 +225,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,13 +271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,31 +409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,133 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,18 +491,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +511,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,41 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1050,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1163,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>2.6</v>
@@ -1177,10 +1180,10 @@
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="4">
         <v>2.6</v>
@@ -1194,10 +1197,10 @@
         <v>10005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>2.6</v>
@@ -1211,10 +1214,10 @@
         <v>10006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>2.6</v>
@@ -1228,10 +1231,10 @@
         <v>10007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>2.6</v>
@@ -1245,10 +1248,10 @@
         <v>10008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>2.6</v>
@@ -1262,10 +1265,10 @@
         <v>10009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>2.6</v>
@@ -1279,10 +1282,10 @@
         <v>10010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>2.6</v>

--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -125,26 +125,124 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,107 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,181 +277,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,30 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,6 +491,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,31 +543,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,130 +582,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/ModelConfig.xlsx
@@ -69,16 +69,16 @@
     <t>骷髅模型2</t>
   </si>
   <si>
-    <t>modelprefabs/Player_002</t>
+    <t>modelprefabs/Monster_coco</t>
   </si>
   <si>
     <t>骷髅模型3</t>
   </si>
   <si>
+    <t>骷髅模型4</t>
+  </si>
+  <si>
     <t>modelprefabs/Player_001</t>
-  </si>
-  <si>
-    <t>骷髅模型4</t>
   </si>
   <si>
     <t>骷髅模型5</t>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,6 +118,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -125,6 +133,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -132,24 +187,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +233,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,84 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +465,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,15 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,30 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +542,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1166,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
         <v>2.6</v>
@@ -1180,10 +1180,10 @@
         <v>10004</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>2.6</v>
@@ -1200,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>2.6</v>
@@ -1217,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>2.6</v>
@@ -1234,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>2.6</v>
@@ -1251,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4">
         <v>2.6</v>
@@ -1268,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>2.6</v>
@@ -1285,7 +1285,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
         <v>2.6</v>
